--- a/results.xlsx
+++ b/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10056" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10056" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stats_all" sheetId="2" r:id="rId1"/>
@@ -809,7 +809,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2036069771383289"/>
+          <c:y val="0.18268861846814602"/>
+          <c:w val="0.72477429195696086"/>
+          <c:h val="0.64855380577427824"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1680,6 +1690,8 @@
         <c:axId val="414448736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.26"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1697,6 +1709,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> threshold</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42371663620581457"/>
+              <c:y val="0.91787878787878774"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1721,10 +1795,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1737,6 +1808,7 @@
         <c:crossAx val="414445784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4.0000000000000008E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="414445784"/>
@@ -1759,6 +1831,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of clusters</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.9086678301337987E-2"/>
+              <c:y val="0.36231400620376997"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1783,10 +1912,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1810,6 +1936,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1825,10 +1952,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -1864,6 +1988,9 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1400">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
           <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
@@ -1901,9 +2028,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.4737854161346989E-2"/>
-          <c:y val="4.5219638242894059E-2"/>
+          <c:y val="0.10012919896640828"/>
           <c:w val="0.88525151972583738"/>
-          <c:h val="0.76654255427373896"/>
+          <c:h val="0.7116329935502248"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1924,25 +2051,23 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd" cmpd="dbl">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="diamond"/>
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -2353,28 +2478,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="28575" cap="rnd" cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
@@ -2383,6 +2497,198 @@
             <c:noEndCap val="1"/>
             <c:plus>
               <c:numRef>
+                <c:f>levels_info_global!$Z$2:$Z$62</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="61"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
                 <c:f>levels_info_global!$AA$2:$AA$62</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
@@ -2572,206 +2878,12 @@
                   </c:pt>
                 </c:numCache>
               </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>levels_info_global!$Z$2:$Z$62</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="61"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>9</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>12</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>16</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>19</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>14</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>11</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>13</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>19</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>15</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>21</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>18</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>20</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>23</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>8</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>10</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>7</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>6</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>5</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>29</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>32</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>4</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>3</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="57">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="58">
-                    <c:v>2</c:v>
-                  </c:pt>
-                  <c:pt idx="59">
-                    <c:v>1</c:v>
-                  </c:pt>
-                  <c:pt idx="60">
-                    <c:v>1</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
             </c:minus>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="bg2">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3186,26 +3298,15 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -3446,19 +3547,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
@@ -3851,7 +3940,7 @@
             </c:minus>
             <c:spPr>
               <a:noFill/>
-              <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -4428,7 +4517,7 @@
         <c:axId val="500109456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="15"/>
+          <c:max val="20"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4493,6 +4582,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.03544783573132E-2"/>
+          <c:y val="1.937984496124031E-2"/>
+          <c:w val="0.86245451118742522"/>
+          <c:h val="9.9970497873812292E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5665,16 +5764,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5693,6 +5792,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>399009</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>132419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="4754880"/>
+          <a:ext cx="8323809" cy="7447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5700,16 +5837,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5996,9 +6133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -6532,8 +6667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AI27" sqref="AI27"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6682,7 +6817,7 @@
         <v>14.5</v>
       </c>
       <c r="X2">
-        <f>V2-D2</f>
+        <f>C2-D2</f>
         <v>0</v>
       </c>
       <c r="Y2">
@@ -6771,7 +6906,7 @@
         <v>31.5</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X62" si="5">V3-D3</f>
+        <f t="shared" ref="X3:X62" si="5">C3-D3</f>
         <v>9</v>
       </c>
       <c r="Y3">
@@ -12048,9 +12183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/results.xlsx
+++ b/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10056" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10056" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stats_all" sheetId="2" r:id="rId1"/>
@@ -125,43 +125,10 @@
     <t>Tree imbalance measure</t>
   </si>
   <si>
-    <t>32.9 (18.4-20.5)</t>
-  </si>
-  <si>
-    <t>36.5 (18.8-20.5)</t>
-  </si>
-  <si>
-    <t>33.7 (10.9-13)</t>
-  </si>
-  <si>
-    <t>765 (881-920)</t>
-  </si>
-  <si>
-    <t>131 (159-174)</t>
-  </si>
-  <si>
-    <t>155 (173-190)</t>
-  </si>
-  <si>
-    <t>34 (81.9-140)</t>
-  </si>
-  <si>
-    <t>24 (66-118.1)</t>
-  </si>
-  <si>
     <t>14 (20-42)</t>
   </si>
   <si>
-    <t>10 (21.9-44)</t>
-  </si>
-  <si>
-    <t>349 (292-318)</t>
-  </si>
-  <si>
     <t>28.1 (28-28.6)</t>
-  </si>
-  <si>
-    <t>27.5 (27.3-27.9)</t>
   </si>
   <si>
     <t>21.8 (21.3-21.9)</t>
@@ -170,85 +137,118 @@
     <t>21.3 (21.6-22.2)</t>
   </si>
   <si>
-    <t>0.685 (0.603-0.624)</t>
-  </si>
-  <si>
-    <t>0.673 (0.589-0.638)</t>
-  </si>
-  <si>
     <t>Log total cophenetic index</t>
-  </si>
-  <si>
-    <t>16.8 (15.4-16.1)</t>
-  </si>
-  <si>
-    <t>13.1 (12-12.9)</t>
   </si>
   <si>
     <t>14.6 (12.2-13)</t>
   </si>
   <si>
-    <t>63393 (15195-21742)</t>
+    <t>50.3 (25.1-26.9)</t>
   </si>
   <si>
-    <t>54940 (12209-17320)</t>
+    <t>48.1 (24.395-26.2)</t>
   </si>
   <si>
-    <t>7214 (1969-3188)</t>
+    <t>32.3 (18.4-20.5)</t>
   </si>
   <si>
-    <t>15535 (2221-3628)</t>
+    <t>36.7 (18.8-20.5)</t>
   </si>
   <si>
-    <t>0.693 (0.603-0.625)</t>
+    <t>31.1 (14.1-16.2)</t>
   </si>
   <si>
-    <t>0.701 (0.588-0.637)</t>
+    <t>28.8 (13.7-15.7)</t>
   </si>
   <si>
-    <t>16.7 (15.1-15.8)</t>
+    <t>19.8 (10.7-12.8)</t>
   </si>
   <si>
-    <t>49.4 (25.2-26.8)</t>
+    <t>33.8 (10.9-13)</t>
   </si>
   <si>
-    <t>48.8 (24.3-26.1)</t>
+    <t>748 (880-917)</t>
   </si>
   <si>
-    <t>20.3 (10.7-12.6)</t>
+    <t>633 (731-763)</t>
   </si>
   <si>
-    <t>31.2 (13.8-15.6)</t>
+    <t>128 (159-175)</t>
   </si>
   <si>
-    <t>30.3 (14.2-16.2)</t>
+    <t>155 (173.95-189)</t>
   </si>
   <si>
-    <t>1847 (1623.9-1685.1)</t>
+    <t>65914 (15212.85-22270.1)</t>
   </si>
   <si>
-    <t>1554 (1347.9-1398.1)</t>
+    <t>49519 (11861.55-18184.8)</t>
   </si>
   <si>
-    <t>365 (318.9-344)</t>
+    <t>6990 (2005.05-3284.95)</t>
   </si>
   <si>
-    <t>622 (735-763)</t>
+    <t>15605 (2190.95-3572.25)</t>
   </si>
   <si>
-    <t>81695 (37672.7-43516.2)</t>
+    <t>34 (79.9-146)</t>
   </si>
   <si>
-    <t>69872 (30718.2-35204.6)</t>
+    <t>26 (70-126)</t>
   </si>
   <si>
-    <t>10146 (5337.9-6467.1)</t>
+    <t>10 (22-44)</t>
   </si>
   <si>
-    <t>18277 (5949.9-6985.2)</t>
+    <t>1867 (1624.95-1687)</t>
   </si>
   <si>
-    <t>Log rooted quartet index</t>
+    <t>1543 (1351-1401)</t>
+  </si>
+  <si>
+    <t>355 (293-318)</t>
+  </si>
+  <si>
+    <t>365 (318-346)</t>
+  </si>
+  <si>
+    <t>Log roooted quartet index</t>
+  </si>
+  <si>
+    <t>27.6 (27.3-27.9)</t>
+  </si>
+  <si>
+    <t>83874 (38117.95-43968.05)</t>
+  </si>
+  <si>
+    <t>64585 (30679.35-35479.55)</t>
+  </si>
+  <si>
+    <t>9902 (5329.95-6376.2)</t>
+  </si>
+  <si>
+    <t>18333 (5926.95-7001.8)</t>
+  </si>
+  <si>
+    <t>0.692 (0.602-0.625)</t>
+  </si>
+  <si>
+    <t>0.688 (0.60195-0.625)</t>
+  </si>
+  <si>
+    <t>0.713 (0.584-0.6431)</t>
+  </si>
+  <si>
+    <t>0.673 (0.5889-0.638)</t>
+  </si>
+  <si>
+    <t>16.9 (15.4-16.2)</t>
+  </si>
+  <si>
+    <t>16.3 (15-15.9)</t>
+  </si>
+  <si>
+    <t>13 (12-12.8)</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +1936,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6667,7 +6666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
@@ -12183,7 +12182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -12215,16 +12216,16 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -12232,16 +12233,16 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -12249,16 +12250,16 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -12266,16 +12267,16 @@
         <v>28</v>
       </c>
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -12283,16 +12284,16 @@
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -12300,33 +12301,33 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -12334,16 +12335,16 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -12351,33 +12352,33 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
